--- a/mySystem/mySystem/xls/BPVBag/SOP-MFG-502-R01A  3D袋体生产记录.xlsx
+++ b/mySystem/mySystem/xls/BPVBag/SOP-MFG-502-R01A  3D袋体生产记录.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QMS File-20160301\SOP-MFG-3 生产岗位记录\306, 2D&amp;3D生产记录\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitpro\mitcpro-master\mitcpro\mySystem\mySystem\xls\BPVBag\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="外观尺寸" sheetId="1" r:id="rId1"/>
@@ -2759,6 +2759,15 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2819,21 +2828,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="16" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="11" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="11" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2852,6 +2846,21 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="16" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="11" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="11" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2915,6 +2924,66 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2927,12 +2996,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2977,69 +3040,6 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3364,55 +3364,55 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
     </row>
     <row r="3" spans="1:11" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="92" t="s">
+      <c r="B3" s="95"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="93"/>
-      <c r="J3" s="92" t="s">
+      <c r="I3" s="96"/>
+      <c r="J3" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="94"/>
+      <c r="K3" s="97"/>
     </row>
     <row r="4" spans="1:11" ht="28.5" customHeight="1">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="101" t="s">
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="102"/>
-      <c r="J4" s="102"/>
-      <c r="K4" s="103"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="106"/>
     </row>
     <row r="5" spans="1:11" s="12" customFormat="1" ht="33" customHeight="1">
       <c r="A5" s="7" t="s">
@@ -3543,21 +3543,21 @@
       <c r="K12" s="18"/>
     </row>
     <row r="13" spans="1:11" ht="57.75" customHeight="1" thickBot="1">
-      <c r="A13" s="84" t="s">
+      <c r="A13" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="85"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="87" t="s">
+      <c r="B13" s="88"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="88"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="90"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="93"/>
     </row>
     <row r="14" spans="1:11" ht="59.25" customHeight="1" thickBot="1">
       <c r="A14" s="20" t="s">
@@ -3634,55 +3634,55 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
-      <c r="M1" s="109" t="s">
+      <c r="M1" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
     </row>
     <row r="2" spans="1:16" ht="33" customHeight="1">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="91"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="94"/>
     </row>
     <row r="3" spans="1:16" ht="30.75" customHeight="1">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="108" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="111" t="s">
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
-      <c r="N3" s="111"/>
-      <c r="O3" s="112" t="s">
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="109"/>
+      <c r="N3" s="109"/>
+      <c r="O3" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="114" t="s">
+      <c r="P3" s="112" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3729,14 +3729,14 @@
       <c r="N4" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="O4" s="113"/>
-      <c r="P4" s="114"/>
+      <c r="O4" s="111"/>
+      <c r="P4" s="112"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="A5" s="30"/>
       <c r="B5" s="9"/>
       <c r="C5" s="31"/>
-      <c r="D5" s="105"/>
+      <c r="D5" s="114"/>
       <c r="E5" s="32">
         <v>1</v>
       </c>
@@ -3765,7 +3765,7 @@
       <c r="A6" s="30"/>
       <c r="B6" s="9"/>
       <c r="C6" s="31"/>
-      <c r="D6" s="106"/>
+      <c r="D6" s="115"/>
       <c r="E6" s="32">
         <v>2</v>
       </c>
@@ -3794,7 +3794,7 @@
       <c r="A7" s="30"/>
       <c r="B7" s="9"/>
       <c r="C7" s="31"/>
-      <c r="D7" s="106"/>
+      <c r="D7" s="115"/>
       <c r="E7" s="32">
         <v>3</v>
       </c>
@@ -3823,7 +3823,7 @@
       <c r="A8" s="30"/>
       <c r="B8" s="9"/>
       <c r="C8" s="31"/>
-      <c r="D8" s="107"/>
+      <c r="D8" s="116"/>
       <c r="E8" s="32">
         <v>4</v>
       </c>
@@ -3852,7 +3852,7 @@
       <c r="A9" s="30"/>
       <c r="B9" s="9"/>
       <c r="C9" s="31"/>
-      <c r="D9" s="105"/>
+      <c r="D9" s="114"/>
       <c r="E9" s="32">
         <v>5</v>
       </c>
@@ -3881,7 +3881,7 @@
       <c r="A10" s="30"/>
       <c r="B10" s="9"/>
       <c r="C10" s="31"/>
-      <c r="D10" s="106"/>
+      <c r="D10" s="115"/>
       <c r="E10" s="32">
         <v>6</v>
       </c>
@@ -3910,7 +3910,7 @@
       <c r="A11" s="30"/>
       <c r="B11" s="9"/>
       <c r="C11" s="31"/>
-      <c r="D11" s="106"/>
+      <c r="D11" s="115"/>
       <c r="E11" s="32">
         <v>7</v>
       </c>
@@ -3939,7 +3939,7 @@
       <c r="A12" s="30"/>
       <c r="B12" s="9"/>
       <c r="C12" s="31"/>
-      <c r="D12" s="107"/>
+      <c r="D12" s="116"/>
       <c r="E12" s="32">
         <v>8</v>
       </c>
@@ -3968,7 +3968,7 @@
       <c r="A13" s="30"/>
       <c r="B13" s="9"/>
       <c r="C13" s="31"/>
-      <c r="D13" s="105"/>
+      <c r="D13" s="114"/>
       <c r="E13" s="32">
         <v>9</v>
       </c>
@@ -3997,7 +3997,7 @@
       <c r="A14" s="30"/>
       <c r="B14" s="9"/>
       <c r="C14" s="31"/>
-      <c r="D14" s="106"/>
+      <c r="D14" s="115"/>
       <c r="E14" s="32">
         <v>10</v>
       </c>
@@ -4026,7 +4026,7 @@
       <c r="A15" s="30"/>
       <c r="B15" s="9"/>
       <c r="C15" s="31"/>
-      <c r="D15" s="107"/>
+      <c r="D15" s="116"/>
       <c r="E15" s="32">
         <v>11</v>
       </c>
@@ -4084,7 +4084,7 @@
       <c r="A17" s="30"/>
       <c r="B17" s="9"/>
       <c r="C17" s="31"/>
-      <c r="D17" s="105"/>
+      <c r="D17" s="114"/>
       <c r="E17" s="32">
         <v>13</v>
       </c>
@@ -4113,7 +4113,7 @@
       <c r="A18" s="30"/>
       <c r="B18" s="9"/>
       <c r="C18" s="31"/>
-      <c r="D18" s="106"/>
+      <c r="D18" s="115"/>
       <c r="E18" s="32">
         <v>14</v>
       </c>
@@ -4142,7 +4142,7 @@
       <c r="A19" s="30"/>
       <c r="B19" s="9"/>
       <c r="C19" s="31"/>
-      <c r="D19" s="107"/>
+      <c r="D19" s="116"/>
       <c r="E19" s="32">
         <v>15</v>
       </c>
@@ -4171,7 +4171,7 @@
       <c r="A20" s="38"/>
       <c r="B20" s="39"/>
       <c r="C20" s="40"/>
-      <c r="D20" s="108"/>
+      <c r="D20" s="117"/>
       <c r="E20" s="41"/>
       <c r="F20" s="39"/>
       <c r="G20" s="39"/>
@@ -4179,13 +4179,13 @@
       <c r="I20" s="39"/>
       <c r="J20" s="39"/>
       <c r="K20" s="39"/>
-      <c r="L20" s="104" t="s">
+      <c r="L20" s="113" t="s">
         <v>37</v>
       </c>
-      <c r="M20" s="104"/>
-      <c r="N20" s="104"/>
-      <c r="O20" s="104"/>
-      <c r="P20" s="104"/>
+      <c r="M20" s="113"/>
+      <c r="N20" s="113"/>
+      <c r="O20" s="113"/>
+      <c r="P20" s="113"/>
     </row>
     <row r="21" spans="1:16" s="42" customFormat="1" ht="15">
       <c r="A21" s="38" t="s">
@@ -4195,7 +4195,7 @@
       <c r="C21" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="108"/>
+      <c r="D21" s="117"/>
       <c r="E21" s="41"/>
       <c r="F21" s="39"/>
       <c r="G21" s="39" t="s">
@@ -4213,12 +4213,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:N3"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
     <mergeCell ref="O20:P20"/>
     <mergeCell ref="D5:D8"/>
     <mergeCell ref="D9:D12"/>
@@ -4226,6 +4220,12 @@
     <mergeCell ref="D17:D19"/>
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="L20:N20"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:N3"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4274,55 +4274,55 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="48" customFormat="1" ht="24" thickBot="1">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="124" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
     </row>
     <row r="3" spans="1:11" s="49" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A3" s="123" t="s">
+      <c r="A3" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="124"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="127" t="s">
+      <c r="B3" s="127"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="130" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="128"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="124" t="s">
+      <c r="G3" s="131"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="127" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="129"/>
-      <c r="K3" s="130"/>
+      <c r="J3" s="132"/>
+      <c r="K3" s="133"/>
     </row>
     <row r="4" spans="1:11" s="49" customFormat="1" ht="24" customHeight="1">
-      <c r="A4" s="131" t="s">
+      <c r="A4" s="134" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="132"/>
-      <c r="C4" s="132"/>
-      <c r="D4" s="132"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="133" t="s">
+      <c r="B4" s="135"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="136" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="134"/>
-      <c r="H4" s="134"/>
-      <c r="I4" s="134"/>
-      <c r="J4" s="134"/>
-      <c r="K4" s="135"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="137"/>
+      <c r="K4" s="138"/>
     </row>
     <row r="5" spans="1:11" s="55" customFormat="1" ht="42" customHeight="1">
       <c r="A5" s="50" t="s">
@@ -4453,21 +4453,21 @@
       <c r="K12" s="60"/>
     </row>
     <row r="13" spans="1:11" s="49" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A13" s="115" t="s">
+      <c r="A13" s="118" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="116"/>
-      <c r="C13" s="116"/>
-      <c r="D13" s="116"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="117" t="s">
+      <c r="B13" s="119"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="120" t="s">
         <v>61</v>
       </c>
-      <c r="G13" s="118"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="119"/>
-      <c r="J13" s="119"/>
-      <c r="K13" s="120"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="122"/>
+      <c r="J13" s="122"/>
+      <c r="K13" s="123"/>
     </row>
     <row r="14" spans="1:11" s="49" customFormat="1" ht="24" customHeight="1" thickBot="1">
       <c r="A14" s="61" t="s">
@@ -4514,7 +4514,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.75" customHeight="1"/>
@@ -4532,68 +4532,68 @@
     <col min="13" max="16384" width="9" style="65"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="177" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A1" s="175" t="s">
+    <row r="1" spans="1:12" s="86" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A1" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="175"/>
-      <c r="C1" s="175"/>
-      <c r="D1" s="175"/>
-      <c r="E1" s="175"/>
-      <c r="F1" s="175"/>
-      <c r="G1" s="175"/>
-      <c r="H1" s="175"/>
-      <c r="I1" s="175"/>
-      <c r="J1" s="175"/>
-      <c r="K1" s="175"/>
-      <c r="L1" s="176" t="s">
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="85" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="163" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
-      <c r="K2" s="142"/>
-      <c r="L2" s="142"/>
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="163"/>
+      <c r="K2" s="163"/>
+      <c r="L2" s="163"/>
     </row>
     <row r="3" spans="1:12" s="6" customFormat="1" ht="29.25" customHeight="1" thickBot="1">
-      <c r="A3" s="143" t="s">
+      <c r="A3" s="164" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="144"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="144"/>
-      <c r="F3" s="166" t="s">
+      <c r="B3" s="165"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="155" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="167"/>
-      <c r="H3" s="168"/>
-      <c r="I3" s="166" t="s">
+      <c r="G3" s="156"/>
+      <c r="H3" s="157"/>
+      <c r="I3" s="155" t="s">
         <v>96</v>
       </c>
-      <c r="J3" s="167"/>
-      <c r="K3" s="167"/>
-      <c r="L3" s="169"/>
+      <c r="J3" s="156"/>
+      <c r="K3" s="156"/>
+      <c r="L3" s="158"/>
     </row>
     <row r="4" spans="1:12" s="6" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A4" s="152" t="s">
+      <c r="A4" s="173" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="157" t="s">
+      <c r="B4" s="141" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="170"/>
+      <c r="C4" s="142"/>
       <c r="D4" s="81" t="s">
         <v>88</v>
       </c>
@@ -4603,14 +4603,14 @@
       <c r="F4" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="G4" s="155" t="s">
+      <c r="G4" s="176" t="s">
         <v>93</v>
       </c>
-      <c r="H4" s="156"/>
-      <c r="I4" s="157" t="s">
+      <c r="H4" s="177"/>
+      <c r="I4" s="141" t="s">
         <v>94</v>
       </c>
-      <c r="J4" s="156"/>
+      <c r="J4" s="177"/>
       <c r="K4" s="76" t="s">
         <v>86</v>
       </c>
@@ -4619,86 +4619,86 @@
       </c>
     </row>
     <row r="5" spans="1:12" s="6" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A5" s="153"/>
-      <c r="B5" s="158"/>
-      <c r="C5" s="159"/>
+      <c r="A5" s="174"/>
+      <c r="B5" s="143"/>
+      <c r="C5" s="144"/>
       <c r="D5" s="75"/>
       <c r="E5" s="82"/>
       <c r="F5" s="74"/>
-      <c r="G5" s="158"/>
-      <c r="H5" s="159"/>
-      <c r="I5" s="171"/>
-      <c r="J5" s="172"/>
-      <c r="K5" s="162"/>
-      <c r="L5" s="164"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="148"/>
+      <c r="K5" s="151"/>
+      <c r="L5" s="153"/>
     </row>
     <row r="6" spans="1:12" s="6" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A6" s="154"/>
-      <c r="B6" s="160"/>
-      <c r="C6" s="161"/>
+      <c r="A6" s="175"/>
+      <c r="B6" s="145"/>
+      <c r="C6" s="146"/>
       <c r="D6" s="80"/>
       <c r="E6" s="83"/>
       <c r="F6" s="78"/>
-      <c r="G6" s="160"/>
-      <c r="H6" s="161"/>
-      <c r="I6" s="173"/>
-      <c r="J6" s="174"/>
-      <c r="K6" s="163"/>
-      <c r="L6" s="165"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="149"/>
+      <c r="J6" s="150"/>
+      <c r="K6" s="152"/>
+      <c r="L6" s="154"/>
     </row>
     <row r="7" spans="1:12" ht="21" customHeight="1">
-      <c r="A7" s="150" t="s">
+      <c r="A7" s="171" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="140" t="s">
+      <c r="B7" s="139" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="140" t="s">
+      <c r="C7" s="139" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="141" t="s">
+      <c r="D7" s="140" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="141"/>
-      <c r="F7" s="147" t="s">
+      <c r="E7" s="140"/>
+      <c r="F7" s="168" t="s">
         <v>70</v>
       </c>
-      <c r="G7" s="145" t="s">
+      <c r="G7" s="166" t="s">
         <v>81</v>
       </c>
-      <c r="H7" s="145" t="s">
+      <c r="H7" s="166" t="s">
         <v>82</v>
       </c>
-      <c r="I7" s="147" t="s">
+      <c r="I7" s="168" t="s">
         <v>71</v>
       </c>
-      <c r="J7" s="147" t="s">
+      <c r="J7" s="168" t="s">
         <v>72</v>
       </c>
-      <c r="K7" s="147" t="s">
+      <c r="K7" s="168" t="s">
         <v>73</v>
       </c>
-      <c r="L7" s="148" t="s">
+      <c r="L7" s="169" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="20.25" customHeight="1">
-      <c r="A8" s="151"/>
-      <c r="B8" s="141"/>
-      <c r="C8" s="141"/>
+      <c r="A8" s="172"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="140"/>
       <c r="D8" s="68" t="s">
         <v>75</v>
       </c>
       <c r="E8" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="F8" s="146"/>
-      <c r="G8" s="146"/>
-      <c r="H8" s="146"/>
-      <c r="I8" s="146"/>
-      <c r="J8" s="146"/>
-      <c r="K8" s="146"/>
-      <c r="L8" s="149"/>
+      <c r="F8" s="167"/>
+      <c r="G8" s="167"/>
+      <c r="H8" s="167"/>
+      <c r="I8" s="167"/>
+      <c r="J8" s="167"/>
+      <c r="K8" s="167"/>
+      <c r="L8" s="170"/>
     </row>
     <row r="9" spans="1:12" ht="23.1" customHeight="1">
       <c r="A9" s="72">
@@ -4943,36 +4943,23 @@
       <c r="L19" s="67"/>
     </row>
     <row r="20" spans="1:12" ht="60" customHeight="1" thickBot="1">
-      <c r="A20" s="136" t="s">
+      <c r="A20" s="159" t="s">
         <v>95</v>
       </c>
-      <c r="B20" s="137"/>
-      <c r="C20" s="137"/>
-      <c r="D20" s="138"/>
-      <c r="E20" s="138"/>
-      <c r="F20" s="138"/>
-      <c r="G20" s="138"/>
-      <c r="H20" s="138"/>
-      <c r="I20" s="138"/>
-      <c r="J20" s="138"/>
-      <c r="K20" s="138"/>
-      <c r="L20" s="139"/>
+      <c r="B20" s="160"/>
+      <c r="C20" s="160"/>
+      <c r="D20" s="161"/>
+      <c r="E20" s="161"/>
+      <c r="F20" s="161"/>
+      <c r="G20" s="161"/>
+      <c r="H20" s="161"/>
+      <c r="I20" s="161"/>
+      <c r="J20" s="161"/>
+      <c r="K20" s="161"/>
+      <c r="L20" s="162"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="I5:J6"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="A20:L20"/>
-    <mergeCell ref="B7:B8"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="H7:H8"/>
@@ -4987,6 +4974,19 @@
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="A20:L20"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="I5:J6"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
